--- a/app/models/tables/numeric_model/train.xlsx
+++ b/app/models/tables/numeric_model/train.xlsx
@@ -477,25 +477,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8075938566552902</v>
+        <v>0.851962457337884</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7743531202435312</v>
+        <v>0.8212616822429907</v>
       </c>
       <c r="D2" t="n">
-        <v>0.8681740614334471</v>
+        <v>0.8997440273037542</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185840707964602</v>
+        <v>0.8587133550488599</v>
       </c>
       <c r="F2" t="n">
-        <v>0.6197534738433853</v>
+        <v>0.7071613301699083</v>
       </c>
       <c r="G2" t="n">
-        <v>0.6151877133105802</v>
+        <v>0.7039249146757679</v>
       </c>
       <c r="H2" t="n">
-        <v>0.80759385665529</v>
+        <v>0.8519624573378839</v>
       </c>
     </row>
     <row r="3">

--- a/app/models/tables/numeric_model/train.xlsx
+++ b/app/models/tables/numeric_model/train.xlsx
@@ -557,29 +557,29 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>xgb</t>
+          <t>xgbclassifier</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9151023890784983</v>
+        <v>0.8295648464163823</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8958502847843776</v>
+        <v>0.8149205055034652</v>
       </c>
       <c r="D5" t="n">
-        <v>0.939419795221843</v>
+        <v>0.8528156996587031</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9171178675551853</v>
+        <v>0.8334375651448822</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8311883837727421</v>
+        <v>0.6598435045992631</v>
       </c>
       <c r="G5" t="n">
-        <v>0.8302047781569966</v>
+        <v>0.6591296928327646</v>
       </c>
       <c r="H5" t="n">
-        <v>0.9151023890784984</v>
+        <v>0.8295648464163823</v>
       </c>
     </row>
   </sheetData>
